--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCD/20/seed1/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-8.024000000000001</v>
+        <v>-8.335000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -496,7 +496,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.084</v>
+        <v>-20.872</v>
       </c>
       <c r="B4" t="n">
         <v>8.199999999999999</v>
@@ -530,7 +530,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-21.802</v>
+        <v>-22.074</v>
       </c>
       <c r="B6" t="n">
         <v>5.51</v>
@@ -547,10 +547,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-21.8</v>
+        <v>-21.486</v>
       </c>
       <c r="B7" t="n">
-        <v>5.768</v>
+        <v>6.355</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.802</v>
+        <v>-21.559</v>
       </c>
       <c r="B8" t="n">
         <v>2.91</v>
@@ -618,7 +618,7 @@
         <v>-21.2</v>
       </c>
       <c r="B11" t="n">
-        <v>7.709999999999999</v>
+        <v>6.709000000000001</v>
       </c>
       <c r="C11" t="n">
         <v>-10.8</v>
@@ -635,13 +635,13 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.624000000000001</v>
+        <v>5.739</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.97</v>
+        <v>-12.13</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.732000000000001</v>
+        <v>-7.631</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -655,10 +655,10 @@
         <v>4.02</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.658</v>
+        <v>-13.332</v>
       </c>
       <c r="D13" t="n">
-        <v>-8.279999999999999</v>
+        <v>-8.327000000000002</v>
       </c>
       <c r="E13" t="n">
         <v>16.47</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.208</v>
+        <v>-12.241</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.526000000000001</v>
+        <v>5.087000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.858</v>
+        <v>-21.795</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.512</v>
+        <v>-13.17</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -757,7 +757,7 @@
         <v>11.01</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.016</v>
+        <v>-12.635</v>
       </c>
       <c r="D19" t="n">
         <v>-7.9</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-21.49</v>
+        <v>-22.116</v>
       </c>
       <c r="B20" t="n">
-        <v>6.1</v>
+        <v>5.413</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.004</v>
+        <v>-12.365</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -785,10 +785,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.474</v>
+        <v>-21.709</v>
       </c>
       <c r="B21" t="n">
-        <v>6.775999999999999</v>
+        <v>6.692</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -805,13 +805,13 @@
         <v>-20.06</v>
       </c>
       <c r="B22" t="n">
-        <v>8.672000000000001</v>
+        <v>8.124000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>-13.694</v>
+        <v>-13.29</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.965999999999999</v>
+        <v>-8.063000000000001</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.822</v>
+        <v>8.094999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -862,7 +862,7 @@
         <v>-11.07</v>
       </c>
       <c r="D25" t="n">
-        <v>-8.675999999999998</v>
+        <v>-8.339000000000002</v>
       </c>
       <c r="E25" t="n">
         <v>16.01</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-21.458</v>
+        <v>-21.749</v>
       </c>
       <c r="B28" t="n">
         <v>5.47</v>
@@ -921,16 +921,16 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.602</v>
+        <v>-21.648</v>
       </c>
       <c r="B29" t="n">
-        <v>4.715999999999999</v>
+        <v>6.181</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.004</v>
+        <v>-7.171000000000001</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-21.272</v>
+        <v>-21.465</v>
       </c>
       <c r="B30" t="n">
         <v>5.27</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.13</v>
+        <v>-21.486</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1009,13 +1009,13 @@
         <v>-20.6</v>
       </c>
       <c r="B34" t="n">
-        <v>8.134</v>
+        <v>7.696</v>
       </c>
       <c r="C34" t="n">
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-8.064</v>
+        <v>-8.026</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-13.568</v>
+        <v>-12.89</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.492</v>
+        <v>-20.745</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>7.441999999999998</v>
+        <v>7.392</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1162,13 +1162,13 @@
         <v>-22.33</v>
       </c>
       <c r="B43" t="n">
-        <v>4.398</v>
+        <v>4.513</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.308</v>
+        <v>-13.13</v>
       </c>
       <c r="D43" t="n">
-        <v>-8.843999999999999</v>
+        <v>-8.452000000000002</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1179,7 +1179,7 @@
         <v>-21.91</v>
       </c>
       <c r="B44" t="n">
-        <v>5.82</v>
+        <v>6.152</v>
       </c>
       <c r="C44" t="n">
         <v>-10.47</v>
@@ -1196,7 +1196,7 @@
         <v>-22.15</v>
       </c>
       <c r="B45" t="n">
-        <v>4.869999999999999</v>
+        <v>5.166000000000001</v>
       </c>
       <c r="C45" t="n">
         <v>-11</v>
@@ -1210,13 +1210,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.034</v>
+        <v>-20.864</v>
       </c>
       <c r="B46" t="n">
-        <v>7.762</v>
+        <v>7.3</v>
       </c>
       <c r="C46" t="n">
-        <v>-13.5</v>
+        <v>-13.484</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1253,7 +1253,7 @@
         <v>-10.86</v>
       </c>
       <c r="D48" t="n">
-        <v>-8.151999999999999</v>
+        <v>-8.058000000000002</v>
       </c>
       <c r="E48" t="n">
         <v>17.41</v>
@@ -1281,10 +1281,10 @@
         <v>-22.25</v>
       </c>
       <c r="B50" t="n">
-        <v>4.157999999999999</v>
+        <v>5.1</v>
       </c>
       <c r="C50" t="n">
-        <v>-12.496</v>
+        <v>-13.419</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
@@ -1295,10 +1295,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-21.726</v>
+        <v>-21.134</v>
       </c>
       <c r="B51" t="n">
-        <v>6.967999999999999</v>
+        <v>6.7</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1312,7 +1312,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-22.022</v>
+        <v>-21.783</v>
       </c>
       <c r="B52" t="n">
         <v>6.39</v>
@@ -1397,10 +1397,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.968</v>
+        <v>-21.157</v>
       </c>
       <c r="B57" t="n">
-        <v>6.382</v>
+        <v>7.263</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-21.908</v>
+        <v>-22.134</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1457,7 +1457,7 @@
         <v>-13.33</v>
       </c>
       <c r="D60" t="n">
-        <v>-8.218</v>
+        <v>-8.360000000000001</v>
       </c>
       <c r="E60" t="n">
         <v>16.4</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-21.812</v>
+        <v>-22.087</v>
       </c>
       <c r="B62" t="n">
         <v>4.28</v>
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>5.118</v>
+        <v>5.038</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1550,10 +1550,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-21.84</v>
+        <v>-21.64</v>
       </c>
       <c r="B66" t="n">
-        <v>6.004</v>
+        <v>6.422</v>
       </c>
       <c r="C66" t="n">
         <v>-10.51</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.58</v>
+        <v>5.8</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1593,7 +1593,7 @@
         <v>-9.98</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.486</v>
+        <v>-7.025</v>
       </c>
       <c r="E68" t="n">
         <v>17.66</v>
@@ -1627,7 +1627,7 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.657999999999999</v>
+        <v>-7.389999999999999</v>
       </c>
       <c r="E70" t="n">
         <v>17.62</v>
@@ -1644,7 +1644,7 @@
         <v>-9.93</v>
       </c>
       <c r="D71" t="n">
-        <v>-7.998</v>
+        <v>-7.784000000000001</v>
       </c>
       <c r="E71" t="n">
         <v>17.13</v>
@@ -1669,7 +1669,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-21.058</v>
+        <v>-20.767</v>
       </c>
       <c r="B73" t="n">
         <v>10.24</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.214</v>
+        <v>-8.396000000000001</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1686,7 +1686,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-20.916</v>
+        <v>-21.244</v>
       </c>
       <c r="B74" t="n">
         <v>7.45</v>
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.318</v>
+        <v>-12.136</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-20.532</v>
+        <v>-21.176</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1763,7 +1763,7 @@
         <v>-13.33</v>
       </c>
       <c r="D78" t="n">
-        <v>-8.206</v>
+        <v>-8.172000000000001</v>
       </c>
       <c r="E78" t="n">
         <v>17.28</v>
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>5.572000000000001</v>
+        <v>5.499</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1859,7 +1859,7 @@
         <v>-22.05</v>
       </c>
       <c r="B84" t="n">
-        <v>5.734</v>
+        <v>5.962</v>
       </c>
       <c r="C84" t="n">
         <v>-12.28</v>
@@ -1910,13 +1910,13 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>5.518000000000001</v>
+        <v>5.048</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
       </c>
       <c r="D87" t="n">
-        <v>-8.266</v>
+        <v>-8.294</v>
       </c>
       <c r="E87" t="n">
         <v>16.53</v>
@@ -1992,16 +1992,16 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-21.324</v>
+        <v>-21.472</v>
       </c>
       <c r="B92" t="n">
-        <v>5.598000000000001</v>
+        <v>5.499000000000001</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.044</v>
+        <v>-6.25</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2049,7 +2049,7 @@
         <v>6.4</v>
       </c>
       <c r="C95" t="n">
-        <v>-12.478</v>
+        <v>-11.862</v>
       </c>
       <c r="D95" t="n">
         <v>-6.44</v>
@@ -2080,10 +2080,10 @@
         <v>-21.32</v>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>7.041999999999999</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.72</v>
+        <v>-13.281</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.594</v>
+        <v>-12.123</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-20.804</v>
+        <v>-21.481</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2154,7 +2154,7 @@
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.512</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
